--- a/basic/web/excel/模版（广告位信息）.xlsx
+++ b/basic/web/excel/模版（广告位信息）.xlsx
@@ -11,14 +11,62 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>测试</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>广告位编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告位名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属楼盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告位开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告位结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告位性质（电梯广告、道闸广告、道杆广告、灯箱、 行人门禁）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装状态（未安装、待维修(损坏)、正常使用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用状态（新增、未使用、已使用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售状态（销售、赠送、置换）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画面状态（预定、待上刊、已上刊、待下刊、已下刊）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -26,7 +74,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,13 +90,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -60,18 +121,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -154,7 +232,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -431,19 +509,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="11.25" customWidth="1"/>
+    <col min="12" max="12" width="13.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" ht="56.25" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="F16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+      <formula1>"电梯广告,道闸广告,道杆广告,灯箱,行人门禁"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
+      <formula1>"新增,未使用,已使用"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576">
+      <formula1>"未安装,待维修(损坏),正常使用"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576">
+      <formula1>"销售,赠送,置换"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
+      <formula1>"预定,待上刊,已上刊,待下刊,已下刊"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
